--- a/MEDIA/3005_拉亞直營營業額(2020-09-01~2020-09-30).xlsx
+++ b/MEDIA/3005_拉亞直營營業額(2020-09-01~2020-09-30).xlsx
@@ -510,65 +510,65 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15841</v>
+        <v>24942</v>
       </c>
       <c r="E3" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="F3" t="n">
-        <v>7625</v>
+        <v>10949</v>
       </c>
       <c r="G3" t="n">
-        <v>48.1</v>
+        <v>43.9</v>
       </c>
       <c r="H3" t="n">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="I3" t="n">
-        <v>5920</v>
+        <v>11623</v>
       </c>
       <c r="J3" t="n">
-        <v>37.4</v>
+        <v>46.6</v>
       </c>
       <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>200</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>40</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>350</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T3" t="n">
         <v>14</v>
       </c>
-      <c r="L3" t="n">
-        <v>2051</v>
-      </c>
-      <c r="M3" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2</v>
-      </c>
       <c r="U3" t="n">
-        <v>245</v>
+        <v>1780</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>7.1</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -580,10 +580,10 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c r="AA3" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
@@ -599,65 +599,65 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>16820</v>
+        <v>23256</v>
       </c>
       <c r="E4" t="n">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="F4" t="n">
-        <v>7890</v>
+        <v>10608</v>
       </c>
       <c r="G4" t="n">
-        <v>46.9</v>
+        <v>45.6</v>
       </c>
       <c r="H4" t="n">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="I4" t="n">
-        <v>6425</v>
+        <v>9683</v>
       </c>
       <c r="J4" t="n">
-        <v>38.2</v>
+        <v>41.6</v>
       </c>
       <c r="K4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L4" t="n">
-        <v>870</v>
+        <v>1745</v>
       </c>
       <c r="M4" t="n">
-        <v>5.2</v>
+        <v>7.5</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>615</v>
+        <v>240</v>
       </c>
       <c r="S4" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U4" t="n">
         <v>980</v>
       </c>
       <c r="V4" t="n">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="AA4" t="n">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
@@ -688,65 +688,65 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17310</v>
+        <v>21602</v>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F5" t="n">
-        <v>7015</v>
+        <v>7528</v>
       </c>
       <c r="G5" t="n">
-        <v>40.5</v>
+        <v>34.8</v>
       </c>
       <c r="H5" t="n">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="I5" t="n">
-        <v>5095</v>
+        <v>7944</v>
       </c>
       <c r="J5" t="n">
-        <v>29.4</v>
+        <v>36.8</v>
       </c>
       <c r="K5" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="L5" t="n">
-        <v>1245</v>
+        <v>2400</v>
       </c>
       <c r="M5" t="n">
-        <v>7.2</v>
+        <v>11.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1920</v>
+        <v>325</v>
       </c>
       <c r="S5" t="n">
-        <v>11.1</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="U5" t="n">
-        <v>2035</v>
+        <v>3320</v>
       </c>
       <c r="V5" t="n">
-        <v>11.8</v>
+        <v>15.4</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>169</v>
+        <v>236</v>
       </c>
       <c r="AA5" t="n">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
@@ -777,38 +777,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>23345</v>
+        <v>25325</v>
       </c>
       <c r="E6" t="n">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="F6" t="n">
-        <v>9025</v>
+        <v>11721</v>
       </c>
       <c r="G6" t="n">
-        <v>38.7</v>
+        <v>46.3</v>
       </c>
       <c r="H6" t="n">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="I6" t="n">
-        <v>9830</v>
+        <v>9354</v>
       </c>
       <c r="J6" t="n">
-        <v>42.1</v>
+        <v>36.9</v>
       </c>
       <c r="K6" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L6" t="n">
-        <v>1450</v>
+        <v>1585</v>
       </c>
       <c r="M6" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>2230</v>
+        <v>200</v>
       </c>
       <c r="S6" t="n">
-        <v>9.6</v>
+        <v>0.8</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="U6" t="n">
-        <v>810</v>
+        <v>2465</v>
       </c>
       <c r="V6" t="n">
-        <v>3.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="AA6" t="n">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
@@ -866,65 +866,65 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>27660</v>
+        <v>30972</v>
       </c>
       <c r="E7" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F7" t="n">
-        <v>11770</v>
+        <v>11776</v>
       </c>
       <c r="G7" t="n">
-        <v>42.6</v>
+        <v>38</v>
       </c>
       <c r="H7" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I7" t="n">
-        <v>10410</v>
+        <v>9461</v>
       </c>
       <c r="J7" t="n">
-        <v>37.6</v>
+        <v>30.5</v>
       </c>
       <c r="K7" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L7" t="n">
-        <v>1220</v>
+        <v>4590</v>
       </c>
       <c r="M7" t="n">
-        <v>4.4</v>
+        <v>14.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1515</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="U7" t="n">
-        <v>2745</v>
+        <v>3645</v>
       </c>
       <c r="V7" t="n">
-        <v>9.9</v>
+        <v>11.8</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="AA7" t="n">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8">
@@ -955,38 +955,38 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>25715</v>
+        <v>32027</v>
       </c>
       <c r="E8" t="n">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="F8" t="n">
-        <v>11305</v>
+        <v>14368</v>
       </c>
       <c r="G8" t="n">
-        <v>44</v>
+        <v>44.9</v>
       </c>
       <c r="H8" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I8" t="n">
-        <v>9035</v>
+        <v>9144</v>
       </c>
       <c r="J8" t="n">
-        <v>35.1</v>
+        <v>28.6</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="L8" t="n">
-        <v>925</v>
+        <v>4625</v>
       </c>
       <c r="M8" t="n">
-        <v>3.6</v>
+        <v>14.4</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -998,22 +998,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>1240</v>
+        <v>630</v>
       </c>
       <c r="S8" t="n">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="U8" t="n">
-        <v>3210</v>
+        <v>3260</v>
       </c>
       <c r="V8" t="n">
-        <v>12.5</v>
+        <v>10.2</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="AA8" t="n">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9">
@@ -1044,80 +1044,80 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>20567</v>
+        <v>27378</v>
       </c>
       <c r="E9" t="n">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="F9" t="n">
-        <v>8705</v>
+        <v>11804</v>
       </c>
       <c r="G9" t="n">
-        <v>42.3</v>
+        <v>43.1</v>
       </c>
       <c r="H9" t="n">
+        <v>117</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9349</v>
+      </c>
+      <c r="J9" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>32</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3710</v>
+      </c>
+      <c r="M9" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>18</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2515</v>
+      </c>
+      <c r="V9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>268</v>
+      </c>
+      <c r="AA9" t="n">
         <v>102</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7797</v>
-      </c>
-      <c r="J9" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="K9" t="n">
-        <v>14</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1415</v>
-      </c>
-      <c r="M9" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T9" t="n">
-        <v>11</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1650</v>
-      </c>
-      <c r="V9" t="n">
-        <v>8</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>200</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>103</v>
       </c>
     </row>
     <row r="10">
@@ -1133,38 +1133,38 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>16631</v>
+        <v>24837</v>
       </c>
       <c r="E10" t="n">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="F10" t="n">
-        <v>6525</v>
+        <v>10721</v>
       </c>
       <c r="G10" t="n">
-        <v>39.2</v>
+        <v>43.2</v>
       </c>
       <c r="H10" t="n">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="I10" t="n">
-        <v>5516</v>
+        <v>8566</v>
       </c>
       <c r="J10" t="n">
-        <v>33.2</v>
+        <v>34.5</v>
       </c>
       <c r="K10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L10" t="n">
-        <v>1070</v>
+        <v>1295</v>
       </c>
       <c r="M10" t="n">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>1425</v>
+        <v>410</v>
       </c>
       <c r="S10" t="n">
-        <v>8.6</v>
+        <v>1.7</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="U10" t="n">
-        <v>2095</v>
+        <v>3845</v>
       </c>
       <c r="V10" t="n">
-        <v>12.6</v>
+        <v>15.5</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>173</v>
+        <v>251</v>
       </c>
       <c r="AA10" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
@@ -1222,38 +1222,38 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>19735</v>
+        <v>22870</v>
       </c>
       <c r="E11" t="n">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="F11" t="n">
-        <v>8805</v>
+        <v>10475</v>
       </c>
       <c r="G11" t="n">
-        <v>44.6</v>
+        <v>45.8</v>
       </c>
       <c r="H11" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I11" t="n">
-        <v>7960</v>
+        <v>8665</v>
       </c>
       <c r="J11" t="n">
-        <v>40.3</v>
+        <v>37.9</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="L11" t="n">
-        <v>255</v>
+        <v>2730</v>
       </c>
       <c r="M11" t="n">
-        <v>1.3</v>
+        <v>11.9</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="U11" t="n">
-        <v>1695</v>
+        <v>1000</v>
       </c>
       <c r="V11" t="n">
-        <v>8.6</v>
+        <v>4.4</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1292,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="AA11" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12">
@@ -1311,80 +1311,80 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>17108</v>
+        <v>26908</v>
       </c>
       <c r="E12" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F12" t="n">
-        <v>6315</v>
+        <v>9107</v>
       </c>
       <c r="G12" t="n">
-        <v>36.9</v>
+        <v>33.8</v>
       </c>
       <c r="H12" t="n">
+        <v>126</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9696</v>
+      </c>
+      <c r="J12" t="n">
+        <v>36</v>
+      </c>
+      <c r="K12" t="n">
+        <v>37</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4215</v>
+      </c>
+      <c r="M12" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>270</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>21</v>
+      </c>
+      <c r="U12" t="n">
+        <v>3620</v>
+      </c>
+      <c r="V12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>261</v>
+      </c>
+      <c r="AA12" t="n">
         <v>103</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6861</v>
-      </c>
-      <c r="J12" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>13</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1160</v>
-      </c>
-      <c r="M12" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" t="n">
-        <v>12</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1415</v>
-      </c>
-      <c r="S12" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="T12" t="n">
-        <v>10</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1345</v>
-      </c>
-      <c r="V12" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>190</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>90</v>
       </c>
     </row>
     <row r="13">
@@ -1400,38 +1400,38 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>18969</v>
+        <v>27642</v>
       </c>
       <c r="E13" t="n">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F13" t="n">
-        <v>7874</v>
+        <v>12655</v>
       </c>
       <c r="G13" t="n">
-        <v>41.5</v>
+        <v>45.8</v>
       </c>
       <c r="H13" t="n">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="I13" t="n">
-        <v>6885</v>
+        <v>9932</v>
       </c>
       <c r="J13" t="n">
-        <v>36.3</v>
+        <v>35.9</v>
       </c>
       <c r="K13" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="L13" t="n">
-        <v>1075</v>
+        <v>2315</v>
       </c>
       <c r="M13" t="n">
-        <v>5.7</v>
+        <v>8.4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1443,37 +1443,37 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>1090</v>
+        <v>190</v>
       </c>
       <c r="S13" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="T13" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="U13" t="n">
-        <v>1750</v>
+        <v>2550</v>
       </c>
       <c r="V13" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>181</v>
+        <v>267</v>
       </c>
       <c r="AA13" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14">
@@ -1489,65 +1489,65 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>22890</v>
+        <v>37730</v>
       </c>
       <c r="E14" t="n">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="F14" t="n">
-        <v>11440</v>
+        <v>15625</v>
       </c>
       <c r="G14" t="n">
-        <v>50</v>
+        <v>41.4</v>
       </c>
       <c r="H14" t="n">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="I14" t="n">
-        <v>4650</v>
+        <v>10280</v>
       </c>
       <c r="J14" t="n">
-        <v>20.3</v>
+        <v>27.2</v>
       </c>
       <c r="K14" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L14" t="n">
-        <v>1430</v>
+        <v>3665</v>
       </c>
       <c r="M14" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2340</v>
+      </c>
+      <c r="P14" t="n">
         <v>6.2</v>
       </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
       <c r="Q14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>1225</v>
+        <v>785</v>
       </c>
       <c r="S14" t="n">
-        <v>5.4</v>
+        <v>2.1</v>
       </c>
       <c r="T14" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="U14" t="n">
-        <v>4145</v>
+        <v>5035</v>
       </c>
       <c r="V14" t="n">
-        <v>18.1</v>
+        <v>13.3</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1559,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="AA14" t="n">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
@@ -1578,65 +1578,65 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>29581</v>
+        <v>37611</v>
       </c>
       <c r="E15" t="n">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F15" t="n">
-        <v>10900</v>
+        <v>13123</v>
       </c>
       <c r="G15" t="n">
-        <v>36.8</v>
+        <v>34.9</v>
       </c>
       <c r="H15" t="n">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="I15" t="n">
-        <v>6966</v>
+        <v>12664</v>
       </c>
       <c r="J15" t="n">
-        <v>23.5</v>
+        <v>33.7</v>
       </c>
       <c r="K15" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="L15" t="n">
-        <v>1520</v>
+        <v>4330</v>
       </c>
       <c r="M15" t="n">
-        <v>5.1</v>
+        <v>11.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>4264</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>1885</v>
+        <v>495</v>
       </c>
       <c r="S15" t="n">
-        <v>6.4</v>
+        <v>1.3</v>
       </c>
       <c r="T15" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="U15" t="n">
-        <v>8310</v>
+        <v>2735</v>
       </c>
       <c r="V15" t="n">
-        <v>28.1</v>
+        <v>7.3</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="AA15" t="n">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
@@ -1667,65 +1667,65 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>20404</v>
+        <v>29252</v>
       </c>
       <c r="E16" t="n">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="F16" t="n">
-        <v>9009</v>
+        <v>14113</v>
       </c>
       <c r="G16" t="n">
-        <v>44.2</v>
+        <v>48.2</v>
       </c>
       <c r="H16" t="n">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="I16" t="n">
-        <v>5735</v>
+        <v>9659</v>
       </c>
       <c r="J16" t="n">
-        <v>28.1</v>
+        <v>33</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="L16" t="n">
-        <v>950</v>
+        <v>2105</v>
       </c>
       <c r="M16" t="n">
-        <v>4.7</v>
+        <v>7.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="S16" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="T16" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="U16" t="n">
-        <v>4495</v>
+        <v>3050</v>
       </c>
       <c r="V16" t="n">
-        <v>22</v>
+        <v>10.4</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1737,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>189</v>
+        <v>276</v>
       </c>
       <c r="AA16" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1756,65 +1756,65 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>18947</v>
+        <v>30615</v>
       </c>
       <c r="E17" t="n">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="F17" t="n">
-        <v>7582</v>
+        <v>13353</v>
       </c>
       <c r="G17" t="n">
-        <v>40</v>
+        <v>43.6</v>
       </c>
       <c r="H17" t="n">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="I17" t="n">
-        <v>6475</v>
+        <v>10100</v>
       </c>
       <c r="J17" t="n">
-        <v>34.2</v>
+        <v>33</v>
       </c>
       <c r="K17" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="L17" t="n">
-        <v>1465</v>
+        <v>3280</v>
       </c>
       <c r="M17" t="n">
-        <v>7.7</v>
+        <v>10.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="U17" t="n">
-        <v>2795</v>
+        <v>3795</v>
       </c>
       <c r="V17" t="n">
-        <v>14.8</v>
+        <v>12.4</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1826,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>204</v>
+        <v>280</v>
       </c>
       <c r="AA17" t="n">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18">
@@ -1845,65 +1845,65 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>19220</v>
+        <v>30488</v>
       </c>
       <c r="E18" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F18" t="n">
-        <v>9040</v>
+        <v>11339</v>
       </c>
       <c r="G18" t="n">
-        <v>47</v>
+        <v>37.2</v>
       </c>
       <c r="H18" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="I18" t="n">
-        <v>6085</v>
+        <v>9189</v>
       </c>
       <c r="J18" t="n">
-        <v>31.7</v>
+        <v>30.1</v>
       </c>
       <c r="K18" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="L18" t="n">
-        <v>1315</v>
+        <v>3090</v>
       </c>
       <c r="M18" t="n">
-        <v>6.8</v>
+        <v>10.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>3465</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="U18" t="n">
-        <v>1915</v>
+        <v>3405</v>
       </c>
       <c r="V18" t="n">
-        <v>10</v>
+        <v>11.2</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="AA18" t="n">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19">
@@ -1934,38 +1934,38 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>19283</v>
+        <v>28736</v>
       </c>
       <c r="E19" t="n">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="F19" t="n">
-        <v>8490</v>
+        <v>12317</v>
       </c>
       <c r="G19" t="n">
-        <v>44</v>
+        <v>42.9</v>
       </c>
       <c r="H19" t="n">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="I19" t="n">
-        <v>6963</v>
+        <v>10254</v>
       </c>
       <c r="J19" t="n">
-        <v>36.1</v>
+        <v>35.7</v>
       </c>
       <c r="K19" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="L19" t="n">
-        <v>525</v>
+        <v>3480</v>
       </c>
       <c r="M19" t="n">
-        <v>2.7</v>
+        <v>12.1</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1977,22 +1977,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1195</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="U19" t="n">
-        <v>2110</v>
+        <v>2685</v>
       </c>
       <c r="V19" t="n">
-        <v>10.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>201</v>
+        <v>281</v>
       </c>
       <c r="AA19" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
@@ -2023,38 +2023,38 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>19823</v>
+        <v>27299</v>
       </c>
       <c r="E20" t="n">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="F20" t="n">
-        <v>8247</v>
+        <v>12107</v>
       </c>
       <c r="G20" t="n">
-        <v>41.6</v>
+        <v>44.3</v>
       </c>
       <c r="H20" t="n">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="I20" t="n">
-        <v>8000</v>
+        <v>9512</v>
       </c>
       <c r="J20" t="n">
-        <v>40.4</v>
+        <v>34.8</v>
       </c>
       <c r="K20" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L20" t="n">
-        <v>1136</v>
+        <v>3020</v>
       </c>
       <c r="M20" t="n">
-        <v>5.7</v>
+        <v>11.1</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2066,37 +2066,37 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="U20" t="n">
-        <v>1610</v>
+        <v>2490</v>
       </c>
       <c r="V20" t="n">
-        <v>8.1</v>
+        <v>9.1</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>203</v>
+        <v>281</v>
       </c>
       <c r="AA20" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21">
@@ -2112,65 +2112,65 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>24707</v>
+        <v>32190</v>
       </c>
       <c r="E21" t="n">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F21" t="n">
-        <v>11730</v>
+        <v>15584</v>
       </c>
       <c r="G21" t="n">
-        <v>47.5</v>
+        <v>48.4</v>
       </c>
       <c r="H21" t="n">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="I21" t="n">
-        <v>6447</v>
+        <v>7911</v>
       </c>
       <c r="J21" t="n">
-        <v>26.1</v>
+        <v>24.6</v>
       </c>
       <c r="K21" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L21" t="n">
-        <v>2015</v>
+        <v>3630</v>
       </c>
       <c r="M21" t="n">
-        <v>8.199999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="N21" t="n">
         <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>1500</v>
+        <v>1210</v>
       </c>
       <c r="P21" t="n">
-        <v>6.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U21" t="n">
-        <v>2545</v>
+        <v>3855</v>
       </c>
       <c r="V21" t="n">
-        <v>10.3</v>
+        <v>12</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>191</v>
+        <v>249</v>
       </c>
       <c r="AA21" t="n">
         <v>129</v>
@@ -2201,65 +2201,65 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>27361</v>
+        <v>38528</v>
       </c>
       <c r="E22" t="n">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="F22" t="n">
-        <v>11951</v>
+        <v>14648</v>
       </c>
       <c r="G22" t="n">
-        <v>43.7</v>
+        <v>38</v>
       </c>
       <c r="H22" t="n">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="I22" t="n">
-        <v>7360</v>
+        <v>8335</v>
       </c>
       <c r="J22" t="n">
-        <v>26.9</v>
+        <v>21.6</v>
       </c>
       <c r="K22" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L22" t="n">
-        <v>795</v>
+        <v>3135</v>
       </c>
       <c r="M22" t="n">
-        <v>2.9</v>
+        <v>8.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>6575</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>17.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>2695</v>
+        <v>355</v>
       </c>
       <c r="S22" t="n">
-        <v>9.800000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="T22" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="U22" t="n">
-        <v>4560</v>
+        <v>5480</v>
       </c>
       <c r="V22" t="n">
-        <v>16.7</v>
+        <v>14.2</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="AA22" t="n">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23">
@@ -2290,80 +2290,80 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>18365</v>
+        <v>27977</v>
       </c>
       <c r="E23" t="n">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="F23" t="n">
-        <v>8341</v>
+        <v>11616</v>
       </c>
       <c r="G23" t="n">
-        <v>45.4</v>
+        <v>41.5</v>
       </c>
       <c r="H23" t="n">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="I23" t="n">
-        <v>5574</v>
+        <v>8281</v>
       </c>
       <c r="J23" t="n">
-        <v>30.4</v>
+        <v>29.6</v>
       </c>
       <c r="K23" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L23" t="n">
-        <v>1090</v>
+        <v>1925</v>
       </c>
       <c r="M23" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>775</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="U23" t="n">
-        <v>2585</v>
+        <v>5055</v>
       </c>
       <c r="V23" t="n">
-        <v>14.1</v>
+        <v>18.1</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>835</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z23" t="n">
-        <v>182</v>
+        <v>264</v>
       </c>
       <c r="AA23" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
@@ -2379,38 +2379,38 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>15943</v>
+        <v>23272</v>
       </c>
       <c r="E24" t="n">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F24" t="n">
-        <v>6059</v>
+        <v>9512</v>
       </c>
       <c r="G24" t="n">
-        <v>38</v>
+        <v>40.9</v>
       </c>
       <c r="H24" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I24" t="n">
-        <v>5444</v>
+        <v>6311</v>
       </c>
       <c r="J24" t="n">
-        <v>34.1</v>
+        <v>27.1</v>
       </c>
       <c r="K24" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L24" t="n">
-        <v>730</v>
+        <v>3795</v>
       </c>
       <c r="M24" t="n">
-        <v>4.6</v>
+        <v>16.3</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2422,37 +2422,37 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="U24" t="n">
-        <v>3290</v>
+        <v>2340</v>
       </c>
       <c r="V24" t="n">
-        <v>20.6</v>
+        <v>10.1</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1314</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="AA24" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
@@ -2468,38 +2468,38 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>18052</v>
+        <v>29289</v>
       </c>
       <c r="E25" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="F25" t="n">
-        <v>8401</v>
+        <v>13769</v>
       </c>
       <c r="G25" t="n">
-        <v>46.5</v>
+        <v>47</v>
       </c>
       <c r="H25" t="n">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="I25" t="n">
-        <v>5701</v>
+        <v>7595</v>
       </c>
       <c r="J25" t="n">
-        <v>31.6</v>
+        <v>25.9</v>
       </c>
       <c r="K25" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="L25" t="n">
-        <v>695</v>
+        <v>4020</v>
       </c>
       <c r="M25" t="n">
-        <v>3.8</v>
+        <v>13.7</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2511,22 +2511,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1725</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="U25" t="n">
-        <v>1530</v>
+        <v>3905</v>
       </c>
       <c r="V25" t="n">
-        <v>8.5</v>
+        <v>13.3</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="AA25" t="n">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
@@ -2557,80 +2557,80 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>16189</v>
+        <v>29001</v>
       </c>
       <c r="E26" t="n">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="F26" t="n">
-        <v>6298</v>
+        <v>12919</v>
       </c>
       <c r="G26" t="n">
-        <v>38.9</v>
+        <v>44.5</v>
       </c>
       <c r="H26" t="n">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="I26" t="n">
-        <v>7526</v>
+        <v>10412</v>
       </c>
       <c r="J26" t="n">
-        <v>46.5</v>
+        <v>35.9</v>
       </c>
       <c r="K26" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L26" t="n">
-        <v>850</v>
+        <v>2940</v>
       </c>
       <c r="M26" t="n">
-        <v>5.3</v>
+        <v>10.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>13</v>
       </c>
       <c r="U26" t="n">
-        <v>1320</v>
+        <v>1905</v>
       </c>
       <c r="V26" t="n">
-        <v>8.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>182</v>
+        <v>269</v>
       </c>
       <c r="AA26" t="n">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27">
@@ -2646,65 +2646,65 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>16552</v>
+        <v>26806</v>
       </c>
       <c r="E27" t="n">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="F27" t="n">
-        <v>5745</v>
+        <v>9071</v>
       </c>
       <c r="G27" t="n">
-        <v>34.7</v>
+        <v>33.8</v>
       </c>
       <c r="H27" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="I27" t="n">
-        <v>6472</v>
+        <v>11765</v>
       </c>
       <c r="J27" t="n">
-        <v>39.1</v>
+        <v>43.9</v>
       </c>
       <c r="K27" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="L27" t="n">
-        <v>860</v>
+        <v>2640</v>
       </c>
       <c r="M27" t="n">
-        <v>5.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>1</v>
       </c>
-      <c r="O27" t="n">
-        <v>950</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
       <c r="R27" t="n">
-        <v>1260</v>
+        <v>105</v>
       </c>
       <c r="S27" t="n">
-        <v>7.6</v>
+        <v>0.4</v>
       </c>
       <c r="T27" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="U27" t="n">
-        <v>1265</v>
+        <v>3225</v>
       </c>
       <c r="V27" t="n">
-        <v>7.6</v>
+        <v>12</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2716,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>169</v>
+        <v>262</v>
       </c>
       <c r="AA27" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28">
@@ -2735,80 +2735,80 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>19942</v>
+        <v>34548</v>
       </c>
       <c r="E28" t="n">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="F28" t="n">
-        <v>8242</v>
+        <v>12506</v>
       </c>
       <c r="G28" t="n">
-        <v>41.3</v>
+        <v>36.2</v>
       </c>
       <c r="H28" t="n">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I28" t="n">
-        <v>7485</v>
+        <v>10660</v>
       </c>
       <c r="J28" t="n">
-        <v>37.5</v>
+        <v>30.9</v>
       </c>
       <c r="K28" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="L28" t="n">
-        <v>800</v>
+        <v>4425</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>12.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q28" t="n">
         <v>3</v>
       </c>
       <c r="R28" t="n">
-        <v>515</v>
+        <v>735</v>
       </c>
       <c r="S28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T28" t="n">
+        <v>28</v>
+      </c>
+      <c r="U28" t="n">
+        <v>4290</v>
+      </c>
+      <c r="V28" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="W28" t="n">
+        <v>25</v>
+      </c>
+      <c r="X28" t="n">
+        <v>892</v>
+      </c>
+      <c r="Y28" t="n">
         <v>2.6</v>
       </c>
-      <c r="T28" t="n">
-        <v>20</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2900</v>
-      </c>
-      <c r="V28" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
-      </c>
       <c r="Z28" t="n">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="AA28" t="n">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
@@ -2824,38 +2824,38 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>24854</v>
+        <v>37181</v>
       </c>
       <c r="E29" t="n">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="F29" t="n">
-        <v>7609</v>
+        <v>11916</v>
       </c>
       <c r="G29" t="n">
-        <v>30.6</v>
+        <v>32</v>
       </c>
       <c r="H29" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I29" t="n">
-        <v>5895</v>
+        <v>7840</v>
       </c>
       <c r="J29" t="n">
-        <v>23.7</v>
+        <v>21.1</v>
       </c>
       <c r="K29" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="L29" t="n">
-        <v>2175</v>
+        <v>5190</v>
       </c>
       <c r="M29" t="n">
-        <v>8.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2870,34 +2870,34 @@
         <v>12</v>
       </c>
       <c r="R29" t="n">
-        <v>2440</v>
+        <v>2900</v>
       </c>
       <c r="S29" t="n">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="T29" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U29" t="n">
-        <v>6735</v>
+        <v>6750</v>
       </c>
       <c r="V29" t="n">
-        <v>27.1</v>
+        <v>18.2</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>2585</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z29" t="n">
-        <v>177</v>
+        <v>248</v>
       </c>
       <c r="AA29" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30">
@@ -2913,80 +2913,80 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>19165</v>
+        <v>27049</v>
       </c>
       <c r="E30" t="n">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F30" t="n">
-        <v>5283</v>
+        <v>9520</v>
       </c>
       <c r="G30" t="n">
-        <v>27.6</v>
+        <v>35.2</v>
       </c>
       <c r="H30" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="I30" t="n">
-        <v>5772</v>
+        <v>7192</v>
       </c>
       <c r="J30" t="n">
-        <v>30.1</v>
+        <v>26.6</v>
       </c>
       <c r="K30" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L30" t="n">
-        <v>1090</v>
+        <v>1930</v>
       </c>
       <c r="M30" t="n">
-        <v>5.7</v>
+        <v>7.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>3805</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>14.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1580</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U30" t="n">
-        <v>5440</v>
+        <v>3180</v>
       </c>
       <c r="V30" t="n">
-        <v>28.4</v>
+        <v>11.8</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>1422</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="Z30" t="n">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="AA30" t="n">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31">
@@ -3002,38 +3002,38 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>18557</v>
+        <v>27176</v>
       </c>
       <c r="E31" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="F31" t="n">
-        <v>6950</v>
+        <v>10713</v>
       </c>
       <c r="G31" t="n">
-        <v>37.5</v>
+        <v>39.4</v>
       </c>
       <c r="H31" t="n">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="I31" t="n">
-        <v>5647</v>
+        <v>8258</v>
       </c>
       <c r="J31" t="n">
         <v>30.4</v>
       </c>
       <c r="K31" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="L31" t="n">
-        <v>1845</v>
+        <v>3525</v>
       </c>
       <c r="M31" t="n">
-        <v>9.9</v>
+        <v>13</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3045,37 +3045,37 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>1350</v>
+        <v>110</v>
       </c>
       <c r="S31" t="n">
-        <v>7.3</v>
+        <v>0.4</v>
       </c>
       <c r="T31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U31" t="n">
-        <v>2765</v>
+        <v>3690</v>
       </c>
       <c r="V31" t="n">
-        <v>14.9</v>
+        <v>13.6</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Z31" t="n">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="AA31" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32">
@@ -3091,38 +3091,38 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>19393</v>
+        <v>26078</v>
       </c>
       <c r="E32" t="n">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="F32" t="n">
-        <v>8891</v>
+        <v>11636</v>
       </c>
       <c r="G32" t="n">
-        <v>45.8</v>
+        <v>44.6</v>
       </c>
       <c r="H32" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I32" t="n">
-        <v>6172</v>
+        <v>6382</v>
       </c>
       <c r="J32" t="n">
-        <v>31.8</v>
+        <v>24.5</v>
       </c>
       <c r="K32" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="L32" t="n">
-        <v>1375</v>
+        <v>3545</v>
       </c>
       <c r="M32" t="n">
-        <v>7.1</v>
+        <v>13.6</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -3134,37 +3134,37 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>505</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U32" t="n">
-        <v>2450</v>
+        <v>3250</v>
       </c>
       <c r="V32" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1265</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="Z32" t="n">
-        <v>184</v>
+        <v>256</v>
       </c>
       <c r="AA32" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
@@ -3176,76 +3176,76 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>608929</v>
+        <v>868585</v>
       </c>
       <c r="E33" t="n">
-        <v>1973</v>
+        <v>2771</v>
       </c>
       <c r="F33" t="n">
-        <v>253062</v>
+        <v>357099</v>
       </c>
       <c r="G33" t="n">
-        <v>41.6</v>
+        <v>41.1</v>
       </c>
       <c r="H33" t="n">
-        <v>2668</v>
+        <v>3248</v>
       </c>
       <c r="I33" t="n">
-        <v>202103</v>
+        <v>276017</v>
       </c>
       <c r="J33" t="n">
-        <v>33.2</v>
+        <v>31.8</v>
       </c>
       <c r="K33" t="n">
-        <v>331</v>
+        <v>800</v>
       </c>
       <c r="L33" t="n">
-        <v>35397</v>
+        <v>93080</v>
       </c>
       <c r="M33" t="n">
-        <v>5.8</v>
+        <v>10.7</v>
       </c>
       <c r="N33" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="O33" t="n">
-        <v>2502</v>
+        <v>25606</v>
       </c>
       <c r="P33" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q33" t="n">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="R33" t="n">
-        <v>34245</v>
+        <v>8295</v>
       </c>
       <c r="S33" t="n">
-        <v>5.6</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
-        <v>508</v>
+        <v>617</v>
       </c>
       <c r="U33" t="n">
-        <v>81325</v>
+        <v>99100</v>
       </c>
       <c r="V33" t="n">
-        <v>13.4</v>
+        <v>11.4</v>
       </c>
       <c r="W33" t="n">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="X33" t="n">
-        <v>295</v>
+        <v>9388</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Z33" t="n">
-        <v>5638</v>
+        <v>7662</v>
       </c>
       <c r="AA33" t="n">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
